--- a/data/pca/factorExposure/factorExposure_2016-10-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01193984431613451</v>
+        <v>0.01169512216983955</v>
       </c>
       <c r="C2">
-        <v>0.05138961832874418</v>
+        <v>0.04206284747582942</v>
       </c>
       <c r="D2">
-        <v>-0.02247871116078399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06311593564196794</v>
+      </c>
+      <c r="E2">
+        <v>-0.05007988162808926</v>
+      </c>
+      <c r="F2">
+        <v>-0.08540755536139857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05219512721953697</v>
+        <v>0.03139123184236496</v>
       </c>
       <c r="C3">
-        <v>0.09973461451607046</v>
+        <v>0.0809202929730732</v>
       </c>
       <c r="D3">
-        <v>-0.05231550187833497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09926032046055422</v>
+      </c>
+      <c r="E3">
+        <v>-0.06549135431305853</v>
+      </c>
+      <c r="F3">
+        <v>-0.02027950028316198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06478956471988426</v>
+        <v>0.05511086755091931</v>
       </c>
       <c r="C4">
-        <v>0.05806222476164945</v>
+        <v>0.06475351582403809</v>
       </c>
       <c r="D4">
-        <v>-0.01665068376634565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06009675361755877</v>
+      </c>
+      <c r="E4">
+        <v>-0.04636729852547949</v>
+      </c>
+      <c r="F4">
+        <v>-0.08028574751620647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02859054674798405</v>
+        <v>0.03218678249478047</v>
       </c>
       <c r="C6">
-        <v>0.04269922921034653</v>
+        <v>0.03711490047716163</v>
       </c>
       <c r="D6">
-        <v>-0.02613530240565069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07033379247670084</v>
+      </c>
+      <c r="E6">
+        <v>-0.05891565292884467</v>
+      </c>
+      <c r="F6">
+        <v>-0.07388285364348898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02269994764379372</v>
+        <v>0.01949203522843178</v>
       </c>
       <c r="C7">
-        <v>0.03933522604544992</v>
+        <v>0.03590366086969896</v>
       </c>
       <c r="D7">
-        <v>0.004977373071461098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03971760185532937</v>
+      </c>
+      <c r="E7">
+        <v>-0.03278290513856025</v>
+      </c>
+      <c r="F7">
+        <v>-0.1089901750045029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001117445781978053</v>
+        <v>0.003336820647331297</v>
       </c>
       <c r="C8">
-        <v>0.01835810912482657</v>
+        <v>0.02471025881528954</v>
       </c>
       <c r="D8">
-        <v>-0.03015709695418319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03597448689227691</v>
+      </c>
+      <c r="E8">
+        <v>-0.03909999514098655</v>
+      </c>
+      <c r="F8">
+        <v>-0.05327538603984552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02920208372628138</v>
+        <v>0.03422049996570269</v>
       </c>
       <c r="C9">
-        <v>0.04225992995509213</v>
+        <v>0.05045348660888346</v>
       </c>
       <c r="D9">
-        <v>-0.01168457465559545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04541003026798378</v>
+      </c>
+      <c r="E9">
+        <v>-0.03828718466726183</v>
+      </c>
+      <c r="F9">
+        <v>-0.08779909661048647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07885392390534633</v>
+        <v>0.1049212692810667</v>
       </c>
       <c r="C10">
-        <v>-0.1914280594144935</v>
+        <v>-0.186359664873287</v>
       </c>
       <c r="D10">
-        <v>-0.009683421795493358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0008124550575154329</v>
+      </c>
+      <c r="E10">
+        <v>-0.04470660117319028</v>
+      </c>
+      <c r="F10">
+        <v>-0.0389144609876511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03965145413771082</v>
+        <v>0.03416346485323608</v>
       </c>
       <c r="C11">
-        <v>0.05437048227624816</v>
+        <v>0.05168366196947268</v>
       </c>
       <c r="D11">
-        <v>0.002314536794672141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03323808141938209</v>
+      </c>
+      <c r="E11">
+        <v>-0.004834219951507982</v>
+      </c>
+      <c r="F11">
+        <v>-0.06380644852717797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03492452807728159</v>
+        <v>0.03509261183590996</v>
       </c>
       <c r="C12">
-        <v>0.04434737653728366</v>
+        <v>0.04678633571515693</v>
       </c>
       <c r="D12">
-        <v>0.0004784532230175352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02636221472453452</v>
+      </c>
+      <c r="E12">
+        <v>-0.01412759303142478</v>
+      </c>
+      <c r="F12">
+        <v>-0.06658382862119644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01140748993076746</v>
+        <v>0.01111941217105867</v>
       </c>
       <c r="C13">
-        <v>0.04313158990097951</v>
+        <v>0.04131801489144661</v>
       </c>
       <c r="D13">
-        <v>-0.01424000864027885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06692099074152293</v>
+      </c>
+      <c r="E13">
+        <v>-0.06493379472467511</v>
+      </c>
+      <c r="F13">
+        <v>-0.1165022547423623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007811142168070674</v>
+        <v>0.004961071674162402</v>
       </c>
       <c r="C14">
-        <v>0.03203246216414628</v>
+        <v>0.02918996937289786</v>
       </c>
       <c r="D14">
-        <v>0.01703594492794379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03136995888362941</v>
+      </c>
+      <c r="E14">
+        <v>-0.02674382429412636</v>
+      </c>
+      <c r="F14">
+        <v>-0.09859221513667124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001553213669080251</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0019429983326293</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.002125450237895975</v>
+      </c>
+      <c r="E15">
+        <v>-0.0005215018782273196</v>
+      </c>
+      <c r="F15">
+        <v>-0.002049440201006019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0347517347773179</v>
+        <v>0.0322077161859221</v>
       </c>
       <c r="C16">
-        <v>0.0390625592796915</v>
+        <v>0.04466091453848151</v>
       </c>
       <c r="D16">
-        <v>-0.004564252491220125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02897738884807323</v>
+      </c>
+      <c r="E16">
+        <v>-0.0193262875852762</v>
+      </c>
+      <c r="F16">
+        <v>-0.06862395081517109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02400496997866751</v>
+        <v>0.01532398804274652</v>
       </c>
       <c r="C19">
-        <v>0.0597017766031089</v>
+        <v>0.05006012339355204</v>
       </c>
       <c r="D19">
-        <v>-0.06751777676322245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1041933287621801</v>
+      </c>
+      <c r="E19">
+        <v>-0.08038161264979804</v>
+      </c>
+      <c r="F19">
+        <v>-0.09787513265563867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01440010976860623</v>
+        <v>0.01248708566791837</v>
       </c>
       <c r="C20">
-        <v>0.04365492115554657</v>
+        <v>0.03977564105433744</v>
       </c>
       <c r="D20">
-        <v>-0.0149777064274164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04321930505101088</v>
+      </c>
+      <c r="E20">
+        <v>-0.0553227888570524</v>
+      </c>
+      <c r="F20">
+        <v>-0.09002964608670636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009621708303593183</v>
+        <v>0.006039129022434189</v>
       </c>
       <c r="C21">
-        <v>0.04778652910279026</v>
+        <v>0.04234890149016459</v>
       </c>
       <c r="D21">
-        <v>-0.03566520878540835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07391431428955907</v>
+      </c>
+      <c r="E21">
+        <v>-0.06863985193647125</v>
+      </c>
+      <c r="F21">
+        <v>-0.1341223560583206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001066415212191619</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02226908663711798</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0322424605366606</v>
+      </c>
+      <c r="E22">
+        <v>-0.01545402738751319</v>
+      </c>
+      <c r="F22">
+        <v>-0.01355427934630577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001000644765199689</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02240083578014719</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03194064102994928</v>
+      </c>
+      <c r="E23">
+        <v>-0.01575908155446929</v>
+      </c>
+      <c r="F23">
+        <v>-0.01342835456923656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02884212001096251</v>
+        <v>0.03050805320738926</v>
       </c>
       <c r="C24">
-        <v>0.04596844094073015</v>
+        <v>0.052264926684263</v>
       </c>
       <c r="D24">
-        <v>0.00106017137555439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02666865506982702</v>
+      </c>
+      <c r="E24">
+        <v>-0.01549739558427359</v>
+      </c>
+      <c r="F24">
+        <v>-0.07513433305217072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04554316829900427</v>
+        <v>0.04117577907844153</v>
       </c>
       <c r="C25">
-        <v>0.05692856594178312</v>
+        <v>0.05814322891896186</v>
       </c>
       <c r="D25">
-        <v>0.01096584854549399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0244188874750619</v>
+      </c>
+      <c r="E25">
+        <v>-0.01266288735697056</v>
+      </c>
+      <c r="F25">
+        <v>-0.07844455590743822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01115627839620344</v>
+        <v>0.01282328289873623</v>
       </c>
       <c r="C26">
-        <v>0.01631080611537625</v>
+        <v>0.01520801774903717</v>
       </c>
       <c r="D26">
-        <v>-0.003165649435014632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02642632648936525</v>
+      </c>
+      <c r="E26">
+        <v>-0.02702276657323664</v>
+      </c>
+      <c r="F26">
+        <v>-0.0737958049864825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.09141435964345482</v>
+        <v>0.1397822965381236</v>
       </c>
       <c r="C28">
-        <v>-0.2171721263564584</v>
+        <v>-0.2369327351009168</v>
       </c>
       <c r="D28">
-        <v>-0.002613333359867465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01590857288008539</v>
+      </c>
+      <c r="E28">
+        <v>-0.04567660959977009</v>
+      </c>
+      <c r="F28">
+        <v>-0.0536527680736904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01219561450447478</v>
+        <v>0.00574428310594341</v>
       </c>
       <c r="C29">
-        <v>0.02591119801025725</v>
+        <v>0.02601590686627486</v>
       </c>
       <c r="D29">
-        <v>0.01658713524960588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02426324538591278</v>
+      </c>
+      <c r="E29">
+        <v>-0.03015409795292378</v>
+      </c>
+      <c r="F29">
+        <v>-0.09061321008150595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05096267752936169</v>
+        <v>0.03820169629787459</v>
       </c>
       <c r="C30">
-        <v>0.06451326573881021</v>
+        <v>0.0621964303955304</v>
       </c>
       <c r="D30">
-        <v>-0.03372521117908382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1087660365032224</v>
+      </c>
+      <c r="E30">
+        <v>-0.03420571698669481</v>
+      </c>
+      <c r="F30">
+        <v>-0.1011894652907174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04276801063344911</v>
+        <v>0.05236554579060237</v>
       </c>
       <c r="C31">
-        <v>0.03228198906157209</v>
+        <v>0.05111854551434984</v>
       </c>
       <c r="D31">
-        <v>0.01232171129791215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003142905632619143</v>
+      </c>
+      <c r="E31">
+        <v>-0.044523854561011</v>
+      </c>
+      <c r="F31">
+        <v>-0.08067388073611585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0008099178543421959</v>
+        <v>0.003335997266192595</v>
       </c>
       <c r="C32">
-        <v>0.04756703279205299</v>
+        <v>0.03031209156572632</v>
       </c>
       <c r="D32">
-        <v>-0.01504022806134417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04925375731864758</v>
+      </c>
+      <c r="E32">
+        <v>-0.02081348148143462</v>
+      </c>
+      <c r="F32">
+        <v>-0.06922086413032669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02539588051560311</v>
+        <v>0.02289610009492235</v>
       </c>
       <c r="C33">
-        <v>0.06156389164062399</v>
+        <v>0.05358626158726551</v>
       </c>
       <c r="D33">
-        <v>-0.01869843960952992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08300524953515549</v>
+      </c>
+      <c r="E33">
+        <v>-0.04840853479429702</v>
+      </c>
+      <c r="F33">
+        <v>-0.1278970222287094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0497359275136388</v>
+        <v>0.03956982926215643</v>
       </c>
       <c r="C34">
-        <v>0.0541690045728906</v>
+        <v>0.06369054212450841</v>
       </c>
       <c r="D34">
-        <v>0.0127105530202737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03414140082218076</v>
+      </c>
+      <c r="E34">
+        <v>0.005598206204541558</v>
+      </c>
+      <c r="F34">
+        <v>-0.07419858575718159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008658299344461525</v>
+        <v>0.01326887209782935</v>
       </c>
       <c r="C36">
-        <v>0.01240617624170848</v>
+        <v>0.01134730740458239</v>
       </c>
       <c r="D36">
-        <v>-0.002752434307751188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0290152082695523</v>
+      </c>
+      <c r="E36">
+        <v>-0.03454140275519908</v>
+      </c>
+      <c r="F36">
+        <v>-0.0827352198521758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03237663227546572</v>
+        <v>0.02516311436698777</v>
       </c>
       <c r="C38">
-        <v>0.02538306725167303</v>
+        <v>0.02462631202383785</v>
       </c>
       <c r="D38">
-        <v>-0.002097864214217848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02811350612363326</v>
+      </c>
+      <c r="E38">
+        <v>-0.03449160049024916</v>
+      </c>
+      <c r="F38">
+        <v>-0.066992963156518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04007908796953712</v>
+        <v>0.03599288186562166</v>
       </c>
       <c r="C39">
-        <v>0.07052313853460909</v>
+        <v>0.06742699963875844</v>
       </c>
       <c r="D39">
-        <v>-0.01997863558215089</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05163692323497453</v>
+      </c>
+      <c r="E39">
+        <v>-0.01751913184577706</v>
+      </c>
+      <c r="F39">
+        <v>-0.08979128819217166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01832208987833523</v>
+        <v>0.01496743120687219</v>
       </c>
       <c r="C40">
-        <v>0.02935769772020451</v>
+        <v>0.03637925831126492</v>
       </c>
       <c r="D40">
-        <v>-0.03433311860088375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04187944307060953</v>
+      </c>
+      <c r="E40">
+        <v>-0.07125545390914585</v>
+      </c>
+      <c r="F40">
+        <v>-0.08717225822565837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01114564087648496</v>
+        <v>0.01789798410184838</v>
       </c>
       <c r="C41">
-        <v>0.003117912078426687</v>
+        <v>0.004535907831076418</v>
       </c>
       <c r="D41">
-        <v>0.0005076878322957313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0193462578124829</v>
+      </c>
+      <c r="E41">
+        <v>-0.03677459555078906</v>
+      </c>
+      <c r="F41">
+        <v>-0.07266672510640601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001190608062407512</v>
+        <v>0.0006113504944833675</v>
       </c>
       <c r="C42">
-        <v>0.01645585376365439</v>
+        <v>0.008701864506354155</v>
       </c>
       <c r="D42">
-        <v>-0.008166188097030616</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.002546813332190723</v>
+      </c>
+      <c r="E42">
+        <v>-0.007407406172214318</v>
+      </c>
+      <c r="F42">
+        <v>0.01434627367593953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03221646729638953</v>
+        <v>0.02951478504915803</v>
       </c>
       <c r="C43">
-        <v>0.01701012363147384</v>
+        <v>0.01947760803715329</v>
       </c>
       <c r="D43">
-        <v>-0.006750038219276165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04399762261489568</v>
+      </c>
+      <c r="E43">
+        <v>-0.04279310584726952</v>
+      </c>
+      <c r="F43">
+        <v>-0.08589973324944654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02161200038540373</v>
+        <v>0.01393364474132107</v>
       </c>
       <c r="C44">
-        <v>0.05399515106262953</v>
+        <v>0.05010932375641916</v>
       </c>
       <c r="D44">
-        <v>-0.01828521235362092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04297668156361818</v>
+      </c>
+      <c r="E44">
+        <v>-0.05684165347391814</v>
+      </c>
+      <c r="F44">
+        <v>-0.0917889383010697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.002036173942393077</v>
+        <v>0.007175987974242687</v>
       </c>
       <c r="C46">
-        <v>0.01911159483430056</v>
+        <v>0.02360266302272668</v>
       </c>
       <c r="D46">
-        <v>0.01529860578136897</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01654424474440806</v>
+      </c>
+      <c r="E46">
+        <v>-0.03401618453185728</v>
+      </c>
+      <c r="F46">
+        <v>-0.1040187192884589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07738696248759137</v>
+        <v>0.08460203045107337</v>
       </c>
       <c r="C47">
-        <v>0.07429414639049881</v>
+        <v>0.07903376465009393</v>
       </c>
       <c r="D47">
-        <v>0.004495564442129917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01062091619909649</v>
+      </c>
+      <c r="E47">
+        <v>-0.05216082540336473</v>
+      </c>
+      <c r="F47">
+        <v>-0.08088207012215436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01960296675181597</v>
+        <v>0.01513814032957197</v>
       </c>
       <c r="C48">
-        <v>0.01065432080612797</v>
+        <v>0.01609530300056887</v>
       </c>
       <c r="D48">
-        <v>0.00390444778854015</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01950288488270925</v>
+      </c>
+      <c r="E48">
+        <v>-0.04417079124816659</v>
+      </c>
+      <c r="F48">
+        <v>-0.09646115610225665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08634033424446111</v>
+        <v>0.07094367511970062</v>
       </c>
       <c r="C50">
-        <v>0.06899412271142361</v>
+        <v>0.06959599582495427</v>
       </c>
       <c r="D50">
-        <v>0.01344645091549165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0001329337908721761</v>
+      </c>
+      <c r="E50">
+        <v>-0.04946568574329243</v>
+      </c>
+      <c r="F50">
+        <v>-0.06825998607450759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01143205188835312</v>
+        <v>0.009475857071762918</v>
       </c>
       <c r="C51">
-        <v>0.04558850874199635</v>
+        <v>0.03256600712907054</v>
       </c>
       <c r="D51">
-        <v>-0.001121777801326496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04873076773022034</v>
+      </c>
+      <c r="E51">
+        <v>-0.01921459385393288</v>
+      </c>
+      <c r="F51">
+        <v>-0.08541721759061878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09209192640564233</v>
+        <v>0.09021366659211147</v>
       </c>
       <c r="C53">
-        <v>0.07726829547404633</v>
+        <v>0.09039334117012794</v>
       </c>
       <c r="D53">
-        <v>0.03671036260189072</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03839064293859538</v>
+      </c>
+      <c r="E53">
+        <v>-0.05320712974047116</v>
+      </c>
+      <c r="F53">
+        <v>-0.08880554411832689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02928594620057423</v>
+        <v>0.02722716927195297</v>
       </c>
       <c r="C54">
-        <v>0.01809931899638977</v>
+        <v>0.02629714832158047</v>
       </c>
       <c r="D54">
-        <v>-0.003764088639219232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03586895941207937</v>
+      </c>
+      <c r="E54">
+        <v>-0.03806345079321523</v>
+      </c>
+      <c r="F54">
+        <v>-0.09575570324694269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07302941740604425</v>
+        <v>0.08163409470488067</v>
       </c>
       <c r="C55">
-        <v>0.07102588677500317</v>
+        <v>0.07463222413568872</v>
       </c>
       <c r="D55">
-        <v>0.03508091228757347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04580312184282</v>
+      </c>
+      <c r="E55">
+        <v>-0.04387729994536897</v>
+      </c>
+      <c r="F55">
+        <v>-0.06432172047835269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.148689452422445</v>
+        <v>0.1432267150654717</v>
       </c>
       <c r="C56">
-        <v>0.09618560518566194</v>
+        <v>0.107445682116066</v>
       </c>
       <c r="D56">
-        <v>0.03175280944200787</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04849115529236047</v>
+      </c>
+      <c r="E56">
+        <v>-0.04885777901951032</v>
+      </c>
+      <c r="F56">
+        <v>-0.05229470711797681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003774357206013018</v>
+        <v>0.001607801618748125</v>
       </c>
       <c r="C57">
-        <v>0.002902028421813318</v>
+        <v>0.001613145537797333</v>
       </c>
       <c r="D57">
-        <v>-0.01507186882934662</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0154533021960051</v>
+      </c>
+      <c r="E57">
+        <v>-0.006770571191587931</v>
+      </c>
+      <c r="F57">
+        <v>-0.01365440302312107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07521161268902873</v>
+        <v>0.02907007013828719</v>
       </c>
       <c r="C58">
-        <v>0.0416953145965544</v>
+        <v>0.03286881564629485</v>
       </c>
       <c r="D58">
-        <v>-0.9650703018877855</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.5070316718540125</v>
+      </c>
+      <c r="E58">
+        <v>-0.6762037028874832</v>
+      </c>
+      <c r="F58">
+        <v>0.4482898686555717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1370610765803645</v>
+        <v>0.152094045040776</v>
       </c>
       <c r="C59">
-        <v>-0.2026487566810146</v>
+        <v>-0.1851986585381299</v>
       </c>
       <c r="D59">
-        <v>-0.02381350897273057</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03002461410292348</v>
+      </c>
+      <c r="E59">
+        <v>-0.02441689966093506</v>
+      </c>
+      <c r="F59">
+        <v>-0.02339648211919163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3124512390684936</v>
+        <v>0.2789637231807393</v>
       </c>
       <c r="C60">
-        <v>0.08929367687912886</v>
+        <v>0.1054245352733817</v>
       </c>
       <c r="D60">
-        <v>0.02459041598910653</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2025713935895605</v>
+      </c>
+      <c r="E60">
+        <v>0.2767710508526877</v>
+      </c>
+      <c r="F60">
+        <v>0.1249088528924108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0361653426765542</v>
+        <v>0.03853339707997007</v>
       </c>
       <c r="C61">
-        <v>0.06207425126522996</v>
+        <v>0.06129573305265358</v>
       </c>
       <c r="D61">
-        <v>-0.0106898751980081</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04727832297746939</v>
+      </c>
+      <c r="E61">
+        <v>-0.02295736960716866</v>
+      </c>
+      <c r="F61">
+        <v>-0.08128452107438773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01259648325206979</v>
+        <v>0.0142044100168395</v>
       </c>
       <c r="C63">
-        <v>0.03634287599917718</v>
+        <v>0.03133162691326776</v>
       </c>
       <c r="D63">
-        <v>0.005585015584556942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02346365448222982</v>
+      </c>
+      <c r="E63">
+        <v>-0.0367501134565782</v>
+      </c>
+      <c r="F63">
+        <v>-0.07598785696660462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04986993364396154</v>
+        <v>0.05422969010568603</v>
       </c>
       <c r="C64">
-        <v>0.02963572189735197</v>
+        <v>0.05334926223439914</v>
       </c>
       <c r="D64">
-        <v>0.006310319012483269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01236107545205529</v>
+      </c>
+      <c r="E64">
+        <v>-0.02144033029593718</v>
+      </c>
+      <c r="F64">
+        <v>-0.08864754109493161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09223206375015637</v>
+        <v>0.06541732453303807</v>
       </c>
       <c r="C65">
-        <v>0.04885419397969244</v>
+        <v>0.0428666436032132</v>
       </c>
       <c r="D65">
-        <v>-0.03286204561804945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0845301149778165</v>
+      </c>
+      <c r="E65">
+        <v>-0.03429992279261623</v>
+      </c>
+      <c r="F65">
+        <v>-0.02674495087895621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06354844960232899</v>
+        <v>0.04841823281957792</v>
       </c>
       <c r="C66">
-        <v>0.1067135224092767</v>
+        <v>0.09155671818755787</v>
       </c>
       <c r="D66">
-        <v>-0.02329018812678007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0784931516274084</v>
+      </c>
+      <c r="E66">
+        <v>-0.02048403037962174</v>
+      </c>
+      <c r="F66">
+        <v>-0.09141958198582946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05659962326808297</v>
+        <v>0.04777190522627392</v>
       </c>
       <c r="C67">
-        <v>0.03093595068491719</v>
+        <v>0.03109610319712568</v>
       </c>
       <c r="D67">
-        <v>0.005925874376233197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01561868347168777</v>
+      </c>
+      <c r="E67">
+        <v>-0.0191476823788481</v>
+      </c>
+      <c r="F67">
+        <v>-0.05363993894558339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1207647410786154</v>
+        <v>0.1585740296728795</v>
       </c>
       <c r="C68">
-        <v>-0.2845546245482591</v>
+        <v>-0.2512317951155885</v>
       </c>
       <c r="D68">
-        <v>-0.006390723562126146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01821619222964721</v>
+      </c>
+      <c r="E68">
+        <v>-0.03847726711189259</v>
+      </c>
+      <c r="F68">
+        <v>-0.01624965300299441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08592773395111165</v>
+        <v>0.08451838994000155</v>
       </c>
       <c r="C69">
-        <v>0.06818512020440196</v>
+        <v>0.08426574560289585</v>
       </c>
       <c r="D69">
-        <v>0.03374172463515395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00691164965772271</v>
+      </c>
+      <c r="E69">
+        <v>-0.02645601726204632</v>
+      </c>
+      <c r="F69">
+        <v>-0.0958879693595807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.125760422640363</v>
+        <v>0.1496549948685544</v>
       </c>
       <c r="C71">
-        <v>-0.242811889429269</v>
+        <v>-0.2288054500096524</v>
       </c>
       <c r="D71">
-        <v>-0.018998494117295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01544059082246974</v>
+      </c>
+      <c r="E71">
+        <v>-0.05681349795996386</v>
+      </c>
+      <c r="F71">
+        <v>-0.05657095320923404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08225759568713287</v>
+        <v>0.0945962754181557</v>
       </c>
       <c r="C72">
-        <v>0.04797078432047539</v>
+        <v>0.05697537586212253</v>
       </c>
       <c r="D72">
-        <v>0.01897697850784385</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02008938695790688</v>
+      </c>
+      <c r="E72">
+        <v>-0.01075691045786978</v>
+      </c>
+      <c r="F72">
+        <v>-0.08216787056286559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4344627699374527</v>
+        <v>0.3444142401964924</v>
       </c>
       <c r="C73">
-        <v>0.06855458845178138</v>
+        <v>0.08713481570043732</v>
       </c>
       <c r="D73">
-        <v>-0.0222510684719797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4203616694733269</v>
+      </c>
+      <c r="E73">
+        <v>0.4949086852219258</v>
+      </c>
+      <c r="F73">
+        <v>0.2962823503521841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1188973192286539</v>
+        <v>0.1103151093755922</v>
       </c>
       <c r="C74">
-        <v>0.1171174943570716</v>
+        <v>0.1032526381243605</v>
       </c>
       <c r="D74">
-        <v>0.01262647268480428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02576975385573919</v>
+      </c>
+      <c r="E74">
+        <v>-0.06681460463897837</v>
+      </c>
+      <c r="F74">
+        <v>-0.05921859452986328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2584375052868765</v>
+        <v>0.2538447729919027</v>
       </c>
       <c r="C75">
-        <v>0.1339584675501523</v>
+        <v>0.1483970315989894</v>
       </c>
       <c r="D75">
-        <v>0.05002881923912952</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1272934630076527</v>
+      </c>
+      <c r="E75">
+        <v>-0.08192630934371105</v>
+      </c>
+      <c r="F75">
+        <v>-0.0227913619626711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1183443233416653</v>
+        <v>0.126620642163094</v>
       </c>
       <c r="C76">
-        <v>0.1072739882352083</v>
+        <v>0.1097083105802572</v>
       </c>
       <c r="D76">
-        <v>0.03333045547383536</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05868900399996178</v>
+      </c>
+      <c r="E76">
+        <v>-0.07192089486568788</v>
+      </c>
+      <c r="F76">
+        <v>-0.0712119091712836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07358956452385663</v>
+        <v>0.06041331831275341</v>
       </c>
       <c r="C77">
-        <v>0.05996108165431796</v>
+        <v>0.06815257299924581</v>
       </c>
       <c r="D77">
-        <v>-0.0397367128607562</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06702348127668181</v>
+      </c>
+      <c r="E77">
+        <v>-0.06198238794988146</v>
+      </c>
+      <c r="F77">
+        <v>-0.1198645300357223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0433543484270189</v>
+        <v>0.04095136621420356</v>
       </c>
       <c r="C78">
-        <v>0.04404423481029666</v>
+        <v>0.05543842249397532</v>
       </c>
       <c r="D78">
-        <v>-0.01312593483413912</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07243407446632666</v>
+      </c>
+      <c r="E78">
+        <v>-0.01780172206720219</v>
+      </c>
+      <c r="F78">
+        <v>-0.1032165757937895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01919514349418323</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03364912181911298</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05658058940812018</v>
+      </c>
+      <c r="E79">
+        <v>-0.0411538683442958</v>
+      </c>
+      <c r="F79">
+        <v>-0.03206596064634246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0460714719607998</v>
+        <v>0.03378362591946469</v>
       </c>
       <c r="C80">
-        <v>0.05293202414644003</v>
+        <v>0.05197622925857333</v>
       </c>
       <c r="D80">
-        <v>-0.02457994325625141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04836069074270474</v>
+      </c>
+      <c r="E80">
+        <v>-0.009596773725908909</v>
+      </c>
+      <c r="F80">
+        <v>-0.03418136090173143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1402636659132815</v>
+        <v>0.1385066279559852</v>
       </c>
       <c r="C81">
-        <v>0.08281386253646598</v>
+        <v>0.1001029805057707</v>
       </c>
       <c r="D81">
-        <v>0.02315677485531777</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09180835668886234</v>
+      </c>
+      <c r="E81">
+        <v>-0.08223139994714436</v>
+      </c>
+      <c r="F81">
+        <v>-0.02603148413828117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07112093843789821</v>
+        <v>0.1901054856012607</v>
       </c>
       <c r="C82">
-        <v>0.04833538710869963</v>
+        <v>0.1431296242548334</v>
       </c>
       <c r="D82">
-        <v>0.0286247023487548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2254843506366437</v>
+      </c>
+      <c r="E82">
+        <v>-0.01834498990963174</v>
+      </c>
+      <c r="F82">
+        <v>-0.0775648621535846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02664261211750072</v>
+        <v>0.02578056237042347</v>
       </c>
       <c r="C83">
-        <v>0.02076471067318322</v>
+        <v>0.03767432983046149</v>
       </c>
       <c r="D83">
-        <v>-0.01392252804763107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03402389039686706</v>
+      </c>
+      <c r="E83">
+        <v>-0.00629359980023972</v>
+      </c>
+      <c r="F83">
+        <v>-0.05061756175963882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.235986818312352</v>
+        <v>0.2036170357160992</v>
       </c>
       <c r="C85">
-        <v>0.1201190049997545</v>
+        <v>0.1312534521580699</v>
       </c>
       <c r="D85">
-        <v>0.1159914225210817</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1048683931719214</v>
+      </c>
+      <c r="E85">
+        <v>-0.005668725376154449</v>
+      </c>
+      <c r="F85">
+        <v>0.01488350890824795</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007141612099706818</v>
+        <v>0.01158483321300117</v>
       </c>
       <c r="C86">
-        <v>0.02075378184663088</v>
+        <v>0.02914701555652244</v>
       </c>
       <c r="D86">
-        <v>-0.0240267264519007</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07711453616563982</v>
+      </c>
+      <c r="E86">
+        <v>-0.04307883306445662</v>
+      </c>
+      <c r="F86">
+        <v>-0.1407608934101096</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02004335502442526</v>
+        <v>0.01901289815740343</v>
       </c>
       <c r="C87">
-        <v>0.01899615264357169</v>
+        <v>0.01983183433884334</v>
       </c>
       <c r="D87">
-        <v>-0.09360841272114424</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09155197734736324</v>
+      </c>
+      <c r="E87">
+        <v>-0.08091521450226039</v>
+      </c>
+      <c r="F87">
+        <v>-0.09369180129531518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1022340762485138</v>
+        <v>0.08797911599059599</v>
       </c>
       <c r="C88">
-        <v>0.07384752987111934</v>
+        <v>0.06502376231533175</v>
       </c>
       <c r="D88">
-        <v>0.01768712887515914</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01408669599389491</v>
+      </c>
+      <c r="E88">
+        <v>-0.03087574565754964</v>
+      </c>
+      <c r="F88">
+        <v>-0.07193305064893307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1961043762652561</v>
+        <v>0.2325343623299548</v>
       </c>
       <c r="C89">
-        <v>-0.3739278891123992</v>
+        <v>-0.3766506996538523</v>
       </c>
       <c r="D89">
-        <v>0.0245589466397283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01841581799357232</v>
+      </c>
+      <c r="E89">
+        <v>-0.0340534265799177</v>
+      </c>
+      <c r="F89">
+        <v>-0.09961972673682451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1815491018812181</v>
+        <v>0.2100974495117277</v>
       </c>
       <c r="C90">
-        <v>-0.3453848757662328</v>
+        <v>-0.3149734217421416</v>
       </c>
       <c r="D90">
-        <v>-0.007664795991435003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01285836012402629</v>
+      </c>
+      <c r="E90">
+        <v>-0.06171077126394971</v>
+      </c>
+      <c r="F90">
+        <v>-0.04773758576659965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2010822866281061</v>
+        <v>0.1876828837872689</v>
       </c>
       <c r="C91">
-        <v>0.1187451158710842</v>
+        <v>0.1434745783467937</v>
       </c>
       <c r="D91">
-        <v>0.04999268170624571</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09973889073863776</v>
+      </c>
+      <c r="E91">
+        <v>-0.0748795389288629</v>
+      </c>
+      <c r="F91">
+        <v>-0.04821076739655646</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1728089605186166</v>
+        <v>0.1899985072709085</v>
       </c>
       <c r="C92">
-        <v>-0.2795578542034677</v>
+        <v>-0.2714036028311299</v>
       </c>
       <c r="D92">
-        <v>0.009340538322741683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006398256437866969</v>
+      </c>
+      <c r="E92">
+        <v>-0.06924698984500681</v>
+      </c>
+      <c r="F92">
+        <v>-0.07104165090233742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2050901273492468</v>
+        <v>0.2349626136034348</v>
       </c>
       <c r="C93">
-        <v>-0.343770481757841</v>
+        <v>-0.3160426223162475</v>
       </c>
       <c r="D93">
-        <v>-0.01316896350239006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0001030987511980571</v>
+      </c>
+      <c r="E93">
+        <v>-0.04844777966186901</v>
+      </c>
+      <c r="F93">
+        <v>-0.04221756485609457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2886723852415483</v>
+        <v>0.3365019032790366</v>
       </c>
       <c r="C94">
-        <v>0.1618270017508584</v>
+        <v>0.2025725122990133</v>
       </c>
       <c r="D94">
-        <v>0.07313988960285138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4664977585860665</v>
+      </c>
+      <c r="E94">
+        <v>-0.1679153040810359</v>
+      </c>
+      <c r="F94">
+        <v>0.4377452437234108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09652525228517968</v>
+        <v>0.08065807999258318</v>
       </c>
       <c r="C95">
-        <v>0.07449445331683904</v>
+        <v>0.07506273334696374</v>
       </c>
       <c r="D95">
-        <v>-0.02240561212996377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1518148711262553</v>
+      </c>
+      <c r="E95">
+        <v>0.1422720230967706</v>
+      </c>
+      <c r="F95">
+        <v>-0.2018432013417141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2054063436637918</v>
+        <v>0.1884067152244996</v>
       </c>
       <c r="C98">
-        <v>0.02268761680760673</v>
+        <v>0.04428060060602635</v>
       </c>
       <c r="D98">
-        <v>-0.01604554891237699</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1711914387951754</v>
+      </c>
+      <c r="E98">
+        <v>0.1562592020544503</v>
+      </c>
+      <c r="F98">
+        <v>0.04210744261539662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01190312131186044</v>
+        <v>0.005627763934436622</v>
       </c>
       <c r="C101">
-        <v>0.02601209455112981</v>
+        <v>0.02575662121245227</v>
       </c>
       <c r="D101">
-        <v>0.01665355837877433</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02361628455950044</v>
+      </c>
+      <c r="E101">
+        <v>-0.03065531698514756</v>
+      </c>
+      <c r="F101">
+        <v>-0.09015612523666279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1212728826504549</v>
+        <v>0.1202324408994837</v>
       </c>
       <c r="C102">
-        <v>0.07867609176385154</v>
+        <v>0.1027175929586815</v>
       </c>
       <c r="D102">
-        <v>0.04403146133487944</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0503922546475646</v>
+      </c>
+      <c r="E102">
+        <v>0.0109525821967583</v>
+      </c>
+      <c r="F102">
+        <v>-0.03832135581900944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
